--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H2">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I2">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J2">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.757548</v>
+        <v>0.9772823333333333</v>
       </c>
       <c r="N2">
-        <v>2.272644</v>
+        <v>2.931847</v>
       </c>
       <c r="O2">
-        <v>0.1332660155370412</v>
+        <v>0.1949382298804705</v>
       </c>
       <c r="P2">
-        <v>0.1332660155370412</v>
+        <v>0.1949382298804704</v>
       </c>
       <c r="Q2">
-        <v>0.102213678996</v>
+        <v>0.02484968365044444</v>
       </c>
       <c r="R2">
-        <v>0.9199231109640001</v>
+        <v>0.223647152854</v>
       </c>
       <c r="S2">
-        <v>0.04379334783958035</v>
+        <v>0.06319414753981771</v>
       </c>
       <c r="T2">
-        <v>0.04379334783958035</v>
+        <v>0.06319414753981771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H3">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I3">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J3">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.577222</v>
       </c>
       <c r="O3">
-        <v>0.2684046151392329</v>
+        <v>0.304339058092031</v>
       </c>
       <c r="P3">
-        <v>0.2684046151392329</v>
+        <v>0.3043390580920309</v>
       </c>
       <c r="Q3">
-        <v>0.2058636109313333</v>
+        <v>0.03879551651155556</v>
       </c>
       <c r="R3">
-        <v>1.852772498382</v>
+        <v>0.349159648604</v>
       </c>
       <c r="S3">
-        <v>0.08820205680475236</v>
+        <v>0.09865918732815851</v>
       </c>
       <c r="T3">
-        <v>0.08820205680475235</v>
+        <v>0.0986591873281585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H4">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I4">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J4">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.533825333333333</v>
+        <v>0.741802</v>
       </c>
       <c r="N4">
-        <v>4.601476</v>
+        <v>2.225406</v>
       </c>
       <c r="O4">
-        <v>0.2698268501838925</v>
+        <v>0.147967034570828</v>
       </c>
       <c r="P4">
-        <v>0.2698268501838925</v>
+        <v>0.1479670345708279</v>
       </c>
       <c r="Q4">
-        <v>0.2069544507506667</v>
+        <v>0.01886204672133333</v>
       </c>
       <c r="R4">
-        <v>1.862590056756</v>
+        <v>0.169758420492</v>
       </c>
       <c r="S4">
-        <v>0.08866942602690119</v>
+        <v>0.0479672490071943</v>
       </c>
       <c r="T4">
-        <v>0.08866942602690117</v>
+        <v>0.0479672490071943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H5">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I5">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J5">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.182616666666667</v>
+        <v>1.021925666666667</v>
       </c>
       <c r="N5">
-        <v>3.54785</v>
+        <v>3.065777</v>
       </c>
       <c r="O5">
-        <v>0.2080430693162201</v>
+        <v>0.2038432229199747</v>
       </c>
       <c r="P5">
-        <v>0.20804306931622</v>
+        <v>0.2038432229199746</v>
       </c>
       <c r="Q5">
-        <v>0.1595669189833334</v>
+        <v>0.02598484456822222</v>
       </c>
       <c r="R5">
-        <v>1.43610227085</v>
+        <v>0.233863601114</v>
       </c>
       <c r="S5">
-        <v>0.06836628575907847</v>
+        <v>0.0660809257993953</v>
       </c>
       <c r="T5">
-        <v>0.06836628575907847</v>
+        <v>0.0660809257993953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H6">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I6">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J6">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6847493333333334</v>
+        <v>0.7465416666666668</v>
       </c>
       <c r="N6">
-        <v>2.054248</v>
+        <v>2.239625</v>
       </c>
       <c r="O6">
-        <v>0.1204594498236133</v>
+        <v>0.148912454536696</v>
       </c>
       <c r="P6">
-        <v>0.1204594498236133</v>
+        <v>0.148912454536696</v>
       </c>
       <c r="Q6">
-        <v>0.0923911732986667</v>
+        <v>0.01898256380555556</v>
       </c>
       <c r="R6">
-        <v>0.8315205596880002</v>
+        <v>0.17084307425</v>
       </c>
       <c r="S6">
-        <v>0.03958490516454063</v>
+        <v>0.0482737307519336</v>
       </c>
       <c r="T6">
-        <v>0.03958490516454061</v>
+        <v>0.0482737307519336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H7">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I7">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J7">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.757548</v>
+        <v>0.9772823333333333</v>
       </c>
       <c r="N7">
-        <v>2.272644</v>
+        <v>2.931847</v>
       </c>
       <c r="O7">
-        <v>0.1332660155370412</v>
+        <v>0.1949382298804705</v>
       </c>
       <c r="P7">
-        <v>0.1332660155370412</v>
+        <v>0.1949382298804704</v>
       </c>
       <c r="Q7">
-        <v>0.208829216904</v>
+        <v>0.05180541072922222</v>
       </c>
       <c r="R7">
-        <v>1.879462952136</v>
+        <v>0.466248696563</v>
       </c>
       <c r="S7">
-        <v>0.08947266769746086</v>
+        <v>0.1317440823406527</v>
       </c>
       <c r="T7">
-        <v>0.08947266769746086</v>
+        <v>0.1317440823406527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H8">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I8">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J8">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>4.577222</v>
       </c>
       <c r="O8">
-        <v>0.2684046151392329</v>
+        <v>0.304339058092031</v>
       </c>
       <c r="P8">
-        <v>0.2684046151392329</v>
+        <v>0.3043390580920309</v>
       </c>
       <c r="Q8">
-        <v>0.4205927922964444</v>
+        <v>0.08087900415977778</v>
       </c>
       <c r="R8">
-        <v>3.785335130668</v>
+        <v>0.727911037438</v>
       </c>
       <c r="S8">
-        <v>0.1802025583344805</v>
+        <v>0.2056798707638725</v>
       </c>
       <c r="T8">
-        <v>0.1802025583344805</v>
+        <v>0.2056798707638725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H9">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I9">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J9">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.533825333333333</v>
+        <v>0.741802</v>
       </c>
       <c r="N9">
-        <v>4.601476</v>
+        <v>2.225406</v>
       </c>
       <c r="O9">
-        <v>0.2698268501838925</v>
+        <v>0.147967034570828</v>
       </c>
       <c r="P9">
-        <v>0.2698268501838925</v>
+        <v>0.1479670345708279</v>
       </c>
       <c r="Q9">
-        <v>0.4228214492382222</v>
+        <v>0.03932267675266667</v>
       </c>
       <c r="R9">
-        <v>3.805393043144</v>
+        <v>0.353904090774</v>
       </c>
       <c r="S9">
-        <v>0.1811574241569913</v>
+        <v>0.09999978556363366</v>
       </c>
       <c r="T9">
-        <v>0.1811574241569913</v>
+        <v>0.09999978556363365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H10">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I10">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J10">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.182616666666667</v>
+        <v>1.021925666666667</v>
       </c>
       <c r="N10">
-        <v>3.54785</v>
+        <v>3.065777</v>
       </c>
       <c r="O10">
-        <v>0.2080430693162201</v>
+        <v>0.2038432229199747</v>
       </c>
       <c r="P10">
-        <v>0.20804306931622</v>
+        <v>0.2038432229199746</v>
       </c>
       <c r="Q10">
-        <v>0.3260056292111111</v>
+        <v>0.05417193894811111</v>
       </c>
       <c r="R10">
-        <v>2.9340506629</v>
+        <v>0.487547450533</v>
       </c>
       <c r="S10">
-        <v>0.1396767835571416</v>
+        <v>0.1377622971205794</v>
       </c>
       <c r="T10">
-        <v>0.1396767835571416</v>
+        <v>0.1377622971205794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H11">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I11">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J11">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6847493333333334</v>
+        <v>0.7465416666666668</v>
       </c>
       <c r="N11">
-        <v>2.054248</v>
+        <v>2.239625</v>
       </c>
       <c r="O11">
-        <v>0.1204594498236133</v>
+        <v>0.148912454536696</v>
       </c>
       <c r="P11">
-        <v>0.1204594498236133</v>
+        <v>0.148912454536696</v>
       </c>
       <c r="Q11">
-        <v>0.1887611967235556</v>
+        <v>0.03957392490277779</v>
       </c>
       <c r="R11">
-        <v>1.698850770512</v>
+        <v>0.356165324125</v>
       </c>
       <c r="S11">
-        <v>0.08087454465907269</v>
+        <v>0.1006387237847624</v>
       </c>
       <c r="T11">
-        <v>0.08087454465907268</v>
+        <v>0.1006387237847624</v>
       </c>
     </row>
   </sheetData>
